--- a/AttributeVocabulary.xlsx
+++ b/AttributeVocabulary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p4\MIT_AutoMesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skarman/Pointwise/omega/consulting/MIT_AutoMesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F76811-B094-474D-B8E2-6E34BFB35D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="4755" windowWidth="23595" windowHeight="15300"/>
+    <workbookView xWindow="24060" yWindow="11200" windowWidth="23600" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeomToMesh Attributes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'GeomToMesh Attributes'!$A$1:$D$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'GeomToMesh Attributes'!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>Key</t>
   </si>
@@ -41,9 +42,6 @@
     <t>Boundary name for domain or collection of domains.</t>
   </si>
   <si>
-    <t>Viscous normal spacing for T-Rex extrusion.</t>
-  </si>
-  <si>
     <t>Surface cell type. Global default is Triangle.</t>
   </si>
   <si>
@@ -333,12 +331,45 @@
   </si>
   <si>
     <t>(Preceding $ means it is a character string)</t>
+  </si>
+  <si>
+    <t>$Wall or &gt; 0.0</t>
+  </si>
+  <si>
+    <t>Viscous normal spacing for T-Rex extrusion. $Wall uses domParams(WallSpacing)</t>
+  </si>
+  <si>
+    <t>Set connector up for adaptation as a source</t>
+  </si>
+  <si>
+    <t>PW:DomainAdaptSource</t>
+  </si>
+  <si>
+    <t>Set domain up for adaptation as a source</t>
+  </si>
+  <si>
+    <t>PW:DomainAdaptTarget</t>
+  </si>
+  <si>
+    <t>Set domain up for adaptation as a target</t>
+  </si>
+  <si>
+    <t>PW:ConnectorAdaptSource</t>
+  </si>
+  <si>
+    <t>PW:DomainShapeConstraint</t>
+  </si>
+  <si>
+    <t>$DataBase or $Free</t>
+  </si>
+  <si>
+    <t>Set the domain shape constraint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -408,18 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -437,6 +456,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,596 +782,652 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/AttributeVocabulary.xlsx
+++ b/AttributeVocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skarman/Pointwise/omega/consulting/MIT_AutoMesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F76811-B094-474D-B8E2-6E34BFB35D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37065F3F-89B2-5F4E-97B2-528DEADD49E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24060" yWindow="11200" windowWidth="23600" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,7 +1404,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>103</v>

--- a/AttributeVocabulary.xlsx
+++ b/AttributeVocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skarman/Pointwise/omega/consulting/MIT_AutoMesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37065F3F-89B2-5F4E-97B2-528DEADD49E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE98231-7B08-8244-9C2D-4CE3E10C1B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="11200" windowWidth="23600" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22840" yWindow="7100" windowWidth="23600" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeomToMesh Attributes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>Key</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>Set the domain shape constraint</t>
+  </si>
+  <si>
+    <t>PW:DomainBlunt</t>
+  </si>
+  <si>
+    <t>Flag the domain as blunt for special dimension handling</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,10 +1161,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1174,7 +1188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
